--- a/benchmarks/benchmark_hpc_2.xlsx
+++ b/benchmarks/benchmark_hpc_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Documents\GitHub\CandidateSearch\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7048E4F-7D9E-4845-A146-BE99664DD78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D309083-8B98-4953-A654-3B3C58EAF2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2850" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
+    <workbookView xWindow="3015" yWindow="2970" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,25 +537,40 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>342.74792289999999</v>
+      </c>
+      <c r="C2">
+        <v>337.40945649999998</v>
+      </c>
+      <c r="D2">
+        <v>330.16511359999998</v>
+      </c>
+      <c r="E2">
+        <v>331.12446990000001</v>
+      </c>
+      <c r="F2">
+        <v>326.99611540000001</v>
+      </c>
       <c r="G2">
         <f t="shared" ref="G2:G9" si="0">MIN(B2:F2)</f>
-        <v>0</v>
+        <v>326.99611540000001</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H9" si="1">MAX(B2:F2)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" t="e">
+        <v>342.74792289999999</v>
+      </c>
+      <c r="I2">
         <f t="shared" ref="I2:I9" si="2">AVERAGE(B2:F2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J2" t="e">
+        <v>333.68861565999998</v>
+      </c>
+      <c r="J2">
         <f t="shared" ref="J2:J9" si="3">_xlfn.STDEV.S(B2:F2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" t="e">
+        <v>6.318527799273701</v>
+      </c>
+      <c r="K2">
         <f>RANK(I2,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -574,25 +589,40 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>299.6885016</v>
+      </c>
+      <c r="C3">
+        <v>299.89680989999999</v>
+      </c>
+      <c r="D3">
+        <v>309.62276420000001</v>
+      </c>
+      <c r="E3">
+        <v>309.98333079999998</v>
+      </c>
+      <c r="F3">
+        <v>310.84821010000002</v>
+      </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>299.6885016</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I3" t="e">
+        <v>310.84821010000002</v>
+      </c>
+      <c r="I3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" t="e">
+        <v>306.00792332000003</v>
+      </c>
+      <c r="J3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" t="e">
+        <v>5.6916630574840319</v>
+      </c>
+      <c r="K3">
         <f>RANK(I3,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -611,25 +641,28 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>423.5134347</v>
+      </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>423.5134347</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" t="e">
+        <v>423.5134347</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>423.5134347</v>
       </c>
       <c r="J4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" t="e">
+      <c r="K4">
         <f>RANK(I4,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>8</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -648,25 +681,28 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="B5">
+        <v>394.98668120000002</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>394.98668120000002</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" t="e">
+        <v>394.98668120000002</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>394.98668120000002</v>
       </c>
       <c r="J5" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" t="e">
+      <c r="K5">
         <f>RANK(I5,I2:I10,1)</f>
-        <v>#DIV/0!</v>
+        <v>7</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -685,25 +721,28 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6">
+        <v>242.7658744</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>242.7658744</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" t="e">
+        <v>242.7658744</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>242.7658744</v>
       </c>
       <c r="J6" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" t="e">
+      <c r="K6">
         <f>RANK(I6,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -722,25 +761,28 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="B7">
+        <v>210.47087139999999</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210.47087139999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" t="e">
+        <v>210.47087139999999</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>210.47087139999999</v>
       </c>
       <c r="J7" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" t="e">
+      <c r="K7">
         <f>RANK(I7,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -759,25 +801,28 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8">
+        <v>254.04986020000001</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>254.04986020000001</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" t="e">
+        <v>254.04986020000001</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>254.04986020000001</v>
       </c>
       <c r="J8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" t="e">
+      <c r="K8">
         <f>RANK(I8,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -796,25 +841,28 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="B9">
+        <v>240.98928660000001</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>240.98928660000001</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="e">
+        <v>240.98928660000001</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>240.98928660000001</v>
       </c>
       <c r="J9" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" t="e">
+      <c r="K9">
         <f>RANK(I9,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>

--- a/benchmarks/benchmark_hpc_2.xlsx
+++ b/benchmarks/benchmark_hpc_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Documents\GitHub\CandidateSearch\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D309083-8B98-4953-A654-3B3C58EAF2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D38642-32F2-4E05-AFD3-B7741FCE0AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3015" yWindow="2970" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
   </bookViews>
@@ -166,9 +166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +206,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,7 +465,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,21 +644,33 @@
       <c r="B4">
         <v>423.5134347</v>
       </c>
+      <c r="C4">
+        <v>431.44481480000002</v>
+      </c>
+      <c r="D4">
+        <v>429.4935552</v>
+      </c>
+      <c r="E4">
+        <v>427.87914210000002</v>
+      </c>
+      <c r="F4">
+        <v>429.01643990000002</v>
+      </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>423.5134347</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>423.5134347</v>
+        <v>431.44481480000002</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>423.5134347</v>
-      </c>
-      <c r="J4" t="e">
+        <v>428.26947734000004</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.9542930986679075</v>
       </c>
       <c r="K4">
         <f>RANK(I4,I2:I9,1)</f>
@@ -684,21 +696,33 @@
       <c r="B5">
         <v>394.98668120000002</v>
       </c>
+      <c r="C5">
+        <v>400.61091190000002</v>
+      </c>
+      <c r="D5">
+        <v>401.14959299999998</v>
+      </c>
+      <c r="E5">
+        <v>399.6146842</v>
+      </c>
+      <c r="F5">
+        <v>399.25793179999999</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
         <v>394.98668120000002</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>394.98668120000002</v>
+        <v>401.14959299999998</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>394.98668120000002</v>
-      </c>
-      <c r="J5" t="e">
+        <v>399.12396042</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.4336212501225338</v>
       </c>
       <c r="K5">
         <f>RANK(I5,I2:I10,1)</f>
@@ -724,25 +748,37 @@
       <c r="B6">
         <v>242.7658744</v>
       </c>
+      <c r="C6">
+        <v>245.5187469</v>
+      </c>
+      <c r="D6">
+        <v>244.1659354</v>
+      </c>
+      <c r="E6">
+        <v>244.98470750000001</v>
+      </c>
+      <c r="F6">
+        <v>244.77412129999999</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>242.7658744</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>242.7658744</v>
+        <v>245.5187469</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>242.7658744</v>
-      </c>
-      <c r="J6" t="e">
+        <v>244.4418771</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.0547308294010393</v>
       </c>
       <c r="K6">
         <f>RANK(I6,I2:I9,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -764,21 +800,33 @@
       <c r="B7">
         <v>210.47087139999999</v>
       </c>
+      <c r="C7">
+        <v>211.45103330000001</v>
+      </c>
+      <c r="D7">
+        <v>211.71929449999999</v>
+      </c>
+      <c r="E7">
+        <v>212.28294869999999</v>
+      </c>
+      <c r="F7">
+        <v>210.7029513</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>210.47087139999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>210.47087139999999</v>
+        <v>212.28294869999999</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>210.47087139999999</v>
-      </c>
-      <c r="J7" t="e">
+        <v>211.32541984</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.74254589529071313</v>
       </c>
       <c r="K7">
         <f>RANK(I7,I2:I9,1)</f>
@@ -804,21 +852,33 @@
       <c r="B8">
         <v>254.04986020000001</v>
       </c>
+      <c r="C8">
+        <v>252.6474025</v>
+      </c>
+      <c r="D8">
+        <v>255.3551823</v>
+      </c>
+      <c r="E8">
+        <v>251.40079929999999</v>
+      </c>
+      <c r="F8">
+        <v>254.51365620000001</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>254.04986020000001</v>
+        <v>251.40079929999999</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>254.04986020000001</v>
+        <v>255.3551823</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>254.04986020000001</v>
-      </c>
-      <c r="J8" t="e">
+        <v>253.59338010000002</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.5701523300370044</v>
       </c>
       <c r="K8">
         <f>RANK(I8,I2:I9,1)</f>
@@ -844,25 +904,37 @@
       <c r="B9">
         <v>240.98928660000001</v>
       </c>
+      <c r="C9">
+        <v>247.47166770000001</v>
+      </c>
+      <c r="D9">
+        <v>247.14301900000001</v>
+      </c>
+      <c r="E9">
+        <v>247.7776696</v>
+      </c>
+      <c r="F9">
+        <v>246.56552569999999</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>240.98928660000001</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>240.98928660000001</v>
+        <v>247.7776696</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>240.98928660000001</v>
-      </c>
-      <c r="J9" t="e">
+        <v>245.98943371999999</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.8310297297663269</v>
       </c>
       <c r="K9">
         <f>RANK(I9,I2:I9,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
